--- a/Result/Q1_particle_count_rmse_comparison.xlsx
+++ b/Result/Q1_particle_count_rmse_comparison.xlsx
@@ -470,19 +470,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>6.889420177114703</v>
+        <v>6.206814451472639</v>
       </c>
       <c r="C2" t="n">
-        <v>10.84781263419278</v>
+        <v>7.256982740658144</v>
       </c>
       <c r="D2" t="n">
-        <v>9.209492164166697</v>
+        <v>7.852699860573538</v>
       </c>
       <c r="E2" t="n">
-        <v>5.771194649922821</v>
+        <v>4.104616929974667</v>
       </c>
       <c r="F2" t="n">
-        <v>7.60409369352432</v>
+        <v>6.240541216952232</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>5.653743652722801</v>
+        <v>4.530314015457481</v>
       </c>
       <c r="C3" t="n">
-        <v>8.491564227341289</v>
+        <v>5.255453819395103</v>
       </c>
       <c r="D3" t="n">
-        <v>7.812496558943504</v>
+        <v>6.882247141305541</v>
       </c>
       <c r="E3" t="n">
-        <v>2.211165261327531</v>
+        <v>2.898239834324655</v>
       </c>
       <c r="F3" t="n">
-        <v>7.137390098870593</v>
+        <v>4.728957257588412</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>1.999115977240493</v>
+        <v>3.798030182426611</v>
       </c>
       <c r="C4" t="n">
-        <v>8.622959344600439</v>
+        <v>4.397840165834101</v>
       </c>
       <c r="D4" t="n">
-        <v>10.118921885936</v>
+        <v>6.40296185775013</v>
       </c>
       <c r="E4" t="n">
-        <v>3.211464397225224</v>
+        <v>2.650356415914889</v>
       </c>
       <c r="F4" t="n">
-        <v>5.57449143959564</v>
+        <v>4.020654980034989</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>3.200530641204058</v>
+        <v>3.138758553415215</v>
       </c>
       <c r="C5" t="n">
-        <v>8.525256787607173</v>
+        <v>3.421321778043894</v>
       </c>
       <c r="D5" t="n">
-        <v>4.194586376846878</v>
+        <v>6.00786330091341</v>
       </c>
       <c r="E5" t="n">
-        <v>1.855199939684397</v>
+        <v>2.550784833149361</v>
       </c>
       <c r="F5" t="n">
-        <v>2.327279191685949</v>
+        <v>3.317033531858568</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>300</v>
       </c>
       <c r="B6" t="n">
-        <v>2.002545442850758</v>
+        <v>2.587482334563528</v>
       </c>
       <c r="C6" t="n">
-        <v>4.230245580718098</v>
+        <v>2.825512063716016</v>
       </c>
       <c r="D6" t="n">
-        <v>5.348017779303132</v>
+        <v>5.017514786812041</v>
       </c>
       <c r="E6" t="n">
-        <v>1.916098644846279</v>
+        <v>2.480101119107365</v>
       </c>
       <c r="F6" t="n">
-        <v>1.393188447556573</v>
+        <v>2.904114275331052</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>500</v>
       </c>
       <c r="B7" t="n">
-        <v>1.970675542114102</v>
+        <v>2.540961176395535</v>
       </c>
       <c r="C7" t="n">
-        <v>1.656375097430815</v>
+        <v>2.759003841857548</v>
       </c>
       <c r="D7" t="n">
-        <v>4.697897087255498</v>
+        <v>4.972975968043194</v>
       </c>
       <c r="E7" t="n">
-        <v>1.840203491186902</v>
+        <v>2.460242111669249</v>
       </c>
       <c r="F7" t="n">
-        <v>1.919297704930328</v>
+        <v>2.814197981807352</v>
       </c>
     </row>
   </sheetData>
